--- a/doc/test.xlsx
+++ b/doc/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiaohao/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git\poi\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="825" yWindow="465" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,29 +24,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>fsafa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gdfgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gsdgsd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gsdsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gdsgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tjf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainProducts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400-880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12453134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qe14124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周星驰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12453544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heheh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  factoryAddress   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,6 +161,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -88,20 +193,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,38 +484,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>